--- a/NodeJs-ES.xlsx
+++ b/NodeJs-ES.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NodeJs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\NodeJs-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B739FD9F-FDFA-4D4F-918D-36006F18B5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385466A5-20E7-440F-8CB1-602BC739D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="let,const" sheetId="1" r:id="rId1"/>
-    <sheet name="string_mthd" sheetId="2" r:id="rId2"/>
-    <sheet name="destructing" sheetId="3" r:id="rId3"/>
-    <sheet name="Rest_Params" sheetId="4" r:id="rId4"/>
-    <sheet name="spread" sheetId="5" r:id="rId5"/>
-    <sheet name="oops" sheetId="6" r:id="rId6"/>
-    <sheet name="callback_hell" sheetId="7" r:id="rId7"/>
+    <sheet name="exports" sheetId="8" r:id="rId1"/>
+    <sheet name="let,const" sheetId="1" r:id="rId2"/>
+    <sheet name="string_mthd" sheetId="2" r:id="rId3"/>
+    <sheet name="destructing" sheetId="3" r:id="rId4"/>
+    <sheet name="Rest_Params" sheetId="4" r:id="rId5"/>
+    <sheet name="spread" sheetId="5" r:id="rId6"/>
+    <sheet name="oops" sheetId="6" r:id="rId7"/>
+    <sheet name="callback_hell" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,9 +31,711 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
+  <si>
+    <t>https://www.freecodecamp.org/news/modules-in-javascript/</t>
+  </si>
+  <si>
+    <t>CommonJS modules</t>
+  </si>
+  <si>
+    <t>CommonJS is a set of standards used to implement modules on JavaScript. The project was started by Mozilla engineer Kevin Dangoor in 2009.</t>
+  </si>
+  <si>
+    <t>CommonJS is mainly used in server-side JS apps with Node, as browsers don't support the use of CommonJS.</t>
+  </si>
+  <si>
+    <t>As a side comment, Node used to only support CommonJS to implement modules, but nowadays it also supports ESmodules which is a more modern approach.</t>
+  </si>
+  <si>
+    <t>So let's see how CommonJS looks in actual code.</t>
+  </si>
+  <si>
+    <r>
+      <t>To implement modules, you need a Node app on your computer first. So create one by running </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>npm init -y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>First let's create a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> file with a simple function in it.</t>
+    </r>
+  </si>
+  <si>
+    <t>const testFunction = () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log('Im the main function')</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>testFunction()</t>
+  </si>
+  <si>
+    <r>
+      <t>Ok now let's say we want to have another function called from our main file, but we don't want the function in it as it's not part of our core feature. For this, let's create a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mod1.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> file and add this code to it:</t>
+    </r>
+  </si>
+  <si>
+    <t>const mod1Function = () =&gt; console.log('Mod1 is alive!')</t>
+  </si>
+  <si>
+    <t>module.exports = mod1Function</t>
+  </si>
+  <si>
+    <r>
+      <t>module.exports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is the keyword we use to declare all we want to export from that file.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To use this function in our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> file, we can do it like this:</t>
+    </r>
+  </si>
+  <si>
+    <t>mod1Function = require('./mod1.js')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mod1Function()</t>
+  </si>
+  <si>
+    <r>
+      <t>See that we declare whatever we want to use and then assign that to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> of the file we want to use. Piece of cake. ;)</t>
+    </r>
+  </si>
+  <si>
+    <t>If we wanted to export more than one thing from a single module, we can do it like this:</t>
+  </si>
+  <si>
+    <t>const mod1Function2 = () =&gt; console.log('Mod1 is rolling, baby!')</t>
+  </si>
+  <si>
+    <t>module.exports = { mod1Function, mod1Function2 }</t>
+  </si>
+  <si>
+    <t>And on the main.js file we can use both functions like this:</t>
+  </si>
+  <si>
+    <t>({ mod1Function, mod1Function2 } = require('./mod1.js'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mod1Function2()</t>
+  </si>
+  <si>
+    <t>And that's pretty much it. Quite simple, right? It is simple but it's a powerful tool to use. =)</t>
+  </si>
+  <si>
+    <t>ESmodules</t>
+  </si>
+  <si>
+    <t>Now let's review ESmodules. ESmodules is a standard that was introduced with ES6 (2015). The idea was to standarize how JS modules work and implement this features in browsers (which didn't previously support modules).</t>
+  </si>
+  <si>
+    <t>ESmodules is a more modern approach that is currently supported by browser and server-side apps with Node.</t>
+  </si>
+  <si>
+    <r>
+      <t>Let's see this in code. Once again we start by creating a Node app with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>npm init -y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Now we go to our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>package.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"type": "module"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> to it, like this:</t>
+    </r>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "name": "modulestestapp",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "version": "1.0.0",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "description": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "main": "index.js",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "scripts": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "test": "echo \"Error: no test specified\" &amp;&amp; exit 1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "keywords": [],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "author": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "license": "ISC",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "type": "module"</t>
+  </si>
+  <si>
+    <t>If we don't do this and try to implement ESmodules on Node, we'll get an error like this:</t>
+  </si>
+  <si>
+    <t>(node:29568) Warning: To load an ES module, set "type": "module" in the package.json or use the .mjs extension.</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>SyntaxError: Cannot use import statement outside a module</t>
+  </si>
+  <si>
+    <r>
+      <t>Now let's repeat the exact same example. In our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> file we'll have the following code:</t>
+    </r>
+  </si>
+  <si>
+    <t>// main.js</t>
+  </si>
+  <si>
+    <t>import { mod1Function } from './mod1.js'</t>
+  </si>
+  <si>
+    <r>
+      <t>And on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mod1.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> we'll have this:</t>
+    </r>
+  </si>
+  <si>
+    <t>// mod1.js</t>
+  </si>
+  <si>
+    <t>export { mod1Function }</t>
+  </si>
+  <si>
+    <r>
+      <t>Notice instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> we're using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>module.exports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> we're using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. The syntaxt is a bit different but the behaviour is very similar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Again if we wanted to export more than one thing from the same file we could do it like this:</t>
+  </si>
+  <si>
+    <t>import { mod1Function, mod1Function2 } from './mod1.js'</t>
+  </si>
+  <si>
+    <t>export { mod1Function, mod1Function2 }</t>
+  </si>
+  <si>
+    <t>Another feature available in ESmodules is import renaming, which can be done like this:</t>
+  </si>
+  <si>
+    <t>import { mod1Function as funct1, mod1Function2 as funct2 } from './mod1.js'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    funct1()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    funct2()</t>
+  </si>
+  <si>
+    <r>
+      <t>Notice we use the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> keyword after each function, and then rename it however we want. Later in our code, we can use that new name instead of the original name the import has. ;)</t>
+    </r>
+  </si>
+  <si>
+    <t>Another thing you could do is import all exports together and put them together in an object, like this:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import * as mod1 from './mod1.js' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mod1.mod1Function()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mod1.mod1Function2()</t>
+  </si>
+  <si>
+    <r>
+      <t>This may be useful in cases when, throughout our code, we want to be explicit about where each import is coming from. See that functions are now being called like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>mod1.mod1Function()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The last thing worth mentioning is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> keyword. With it we can set a default export for a given module. Like this:</t>
+    </r>
+  </si>
+  <si>
+    <t>export default mod1Function</t>
+  </si>
+  <si>
+    <t>export { mod1Function2 }</t>
+  </si>
+  <si>
+    <t>And what does it mean to have a default export? Well, it means we don't have to destructure it when we import it. We can use it just like this:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import mod1Function, { mod1Function2 } from './mod1.js' </t>
+  </si>
+  <si>
+    <r>
+      <t>We can even rename the import whatever we want without the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> keyword, since JavaScript "knows" that if we're not destructuring we'll be referring to the default import.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">import lalala, { mod1Function2 } from './mod1.js' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    lalala()</t>
+  </si>
+  <si>
+    <t>And that pretty much sums it up about ESmodules too. Straightforward I hope. =)</t>
+  </si>
+  <si>
+    <t>Using modules</t>
+  </si>
+  <si>
+    <t>Ok now that we're clear about the different types of modules available and how they work, let's see how we can implement modules in a website using HMTL and Vanilla JS.</t>
+  </si>
+  <si>
+    <r>
+      <t>Let's create a simple HTML file with a heading, two buttons, and a script tag linking to our </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> file.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;!-- index.html --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;meta charset="UTF-8"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;title&gt;Document&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h1&gt;I'm just a test...&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;button id="isAlive"&gt;Is mod1 alive?&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;button id="isRolling"&gt;Is mod1 rolling?&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;script src="./main.js" type="module"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Pay attention to the fact that I'm declaring </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>type="module"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF0A0A23"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> on the script tag. We need to do this in order to use the JS module feature. If we don't, we'll get an error like this:</t>
+    </r>
+  </si>
+  <si>
+    <t>Uncaught SyntaxError: Cannot use import statement outside a module</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,16 +743,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF0A0A23"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF0A0A23"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -57,14 +812,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1081,10 +1917,1099 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E1DF3F-FA68-4302-9230-2E79ECFBAB91}">
+  <dimension ref="A1:A256"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="133.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+    </row>
+    <row r="76" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+    </row>
+    <row r="78" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+    </row>
+    <row r="80" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
+    </row>
+    <row r="98" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+    </row>
+    <row r="106" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+    </row>
+    <row r="120" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10"/>
+    </row>
+    <row r="128" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10"/>
+    </row>
+    <row r="130" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="10"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="10"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="10"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
+    </row>
+    <row r="153" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+    </row>
+    <row r="168" spans="1:1" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+    </row>
+    <row r="170" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+    </row>
+    <row r="185" spans="1:1" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+    </row>
+    <row r="187" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="12"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
+    </row>
+    <row r="198" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="10"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="12"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="12"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="10"/>
+    </row>
+    <row r="213" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="10"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="12"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="12"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="10"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="10"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="10"/>
+    </row>
+    <row r="228" spans="1:1" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
+    </row>
+    <row r="230" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="10"/>
+    </row>
+    <row r="233" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="10"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="10"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="10"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="10"/>
+    </row>
+    <row r="254" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="10"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="https://en.wikipedia.org/wiki/CommonJS" xr:uid="{BC5BD789-F12F-4C59-9BF9-5F4D4D20C0F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1093,7 +3018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95071B82-047B-4EFC-9011-853D0E06C6A8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1108,11 +3033,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B593D94B-130F-4049-AB99-6BD0B176939C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -1123,7 +3048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C98459C-9039-47BE-AD94-569EBA89AA6E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1138,7 +3063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C153C4-91A3-434D-896C-0EF89893EA50}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1153,7 +3078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F5313C-2184-4050-BE7F-10EB68350964}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1166,11 +3091,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9029BE0D-4A45-4ED2-89A3-04D204CA85A3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>

--- a/NodeJs-ES.xlsx
+++ b/NodeJs-ES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\NodeJs-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385466A5-20E7-440F-8CB1-602BC739D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F7AB02-CEC0-4A48-9058-B526F55892F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exports" sheetId="8" r:id="rId1"/>
@@ -1920,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E1DF3F-FA68-4302-9230-2E79ECFBAB91}">
   <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -3037,7 +3037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B593D94B-130F-4049-AB99-6BD0B176939C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
